--- a/ReactTsx-Capstone.xlsx
+++ b/ReactTsx-Capstone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -100,11 +100,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="mm/dd"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm/dd"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -156,10 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +179,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,15 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,10 +217,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,19 +231,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,7 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,16 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +374,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,79 +428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +464,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,55 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -643,15 +652,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,21 +692,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -729,16 +714,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,127 +753,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,10 +978,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1528,8 +1528,12 @@
       <c r="C8" s="34">
         <v>44933</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="34">
+        <v>44934</v>
+      </c>
+      <c r="E8" s="35">
+        <v>100</v>
+      </c>
       <c r="F8" s="36" t="s">
         <v>11</v>
       </c>
@@ -1557,9 +1561,15 @@
       <c r="B9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="29">
+        <v>44934</v>
+      </c>
+      <c r="D9" s="29">
+        <v>44934</v>
+      </c>
+      <c r="E9" s="30">
+        <v>100</v>
+      </c>
       <c r="F9" s="31"/>
       <c r="G9" s="38"/>
       <c r="H9" s="32"/>
@@ -1819,10 +1829,14 @@
       <c r="B18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="34">
+        <v>44935</v>
+      </c>
       <c r="D18" s="34"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="36"/>
       <c r="H18" s="42"/>
       <c r="I18" s="45"/>
@@ -1847,10 +1861,14 @@
       <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="29">
+        <v>44935</v>
+      </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" s="31"/>
       <c r="H19" s="43"/>
       <c r="I19" s="45"/>

--- a/ReactTsx-Capstone.xlsx
+++ b/ReactTsx-Capstone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mm/dd"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -156,89 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -255,9 +172,101 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,9 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,14 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +356,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,13 +398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,55 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,25 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,61 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,11 +632,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,61 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,151 +709,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,10 +978,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1570,7 +1570,9 @@
       <c r="E9" s="30">
         <v>100</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="32"/>
       <c r="I9" s="45"/>
@@ -1771,10 +1773,18 @@
       <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="41"/>
+      <c r="C16" s="34">
+        <v>44939</v>
+      </c>
+      <c r="D16" s="34">
+        <v>44939</v>
+      </c>
+      <c r="E16" s="35">
+        <v>100</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="45"/>
@@ -1832,8 +1842,12 @@
       <c r="C18" s="34">
         <v>44935</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="34">
+        <v>44937</v>
+      </c>
+      <c r="E18" s="35">
+        <v>100</v>
+      </c>
       <c r="F18" s="36" t="s">
         <v>11</v>
       </c>
@@ -1864,8 +1878,12 @@
       <c r="C19" s="29">
         <v>44935</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="29">
+        <v>44938</v>
+      </c>
+      <c r="E19" s="30">
+        <v>100</v>
+      </c>
       <c r="F19" s="31" t="s">
         <v>11</v>
       </c>

--- a/ReactTsx-Capstone.xlsx
+++ b/ReactTsx-Capstone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="mm/dd"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -157,36 +157,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -207,30 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -246,19 +192,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,14 +210,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +270,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +356,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +458,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,163 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,40 +633,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +665,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -696,16 +681,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,160 +729,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +968,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,10 +978,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1809,10 +1809,18 @@
       <c r="B17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="29">
+        <v>44941</v>
+      </c>
+      <c r="D17" s="29">
+        <v>44941</v>
+      </c>
+      <c r="E17" s="30">
+        <v>100</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>11</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="H17" s="32"/>
       <c r="I17" s="45"/>

--- a/ReactTsx-Capstone.xlsx
+++ b/ReactTsx-Capstone.xlsx
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="176" formatCode="mm/dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -157,14 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,8 +170,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -186,7 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +209,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +224,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,8 +238,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -255,10 +261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,8 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,16 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,25 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,25 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,25 +500,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,20 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,151 +720,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,10 +978,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:X1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1657,7 +1657,9 @@
       <c r="B12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34">
+        <v>44945</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
@@ -1685,7 +1687,9 @@
       <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="29">
+        <v>44945</v>
+      </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="40"/>
